--- a/user_stories/04_page_de_chat/changer_de_channel_de_chat.xlsx
+++ b/user_stories/04_page_de_chat/changer_de_channel_de_chat.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbochard/Code/Openclassrooms/Projet/P03_Learnathome/user_stories/04_page_de_chat/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{288C3346-0490-4C4D-92B8-121107CB98C2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5121F96-3C9B-4D4C-A559-9D647759DEC6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3580" yWindow="2500" windowWidth="27240" windowHeight="16440" xr2:uid="{89040F8A-9A7B-2840-8C07-145652A768B7}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="27240" windowHeight="16440" xr2:uid="{89040F8A-9A7B-2840-8C07-145652A768B7}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -30,9 +30,6 @@
     <t>En tant que</t>
   </si>
   <si>
-    <t>utilisateur connecté et sur la page de chat</t>
-  </si>
-  <si>
     <t>Je souhaite</t>
   </si>
   <si>
@@ -69,7 +66,10 @@
     <t>clique sur un boutton de channel de chat</t>
   </si>
   <si>
-    <t>je peux changer de channel de chat afin de communiquer vec un autre utilisateur</t>
+    <t>utilisateur connecté</t>
+  </si>
+  <si>
+    <t>je change de channel de chat afin de communiquer avec un autre utilisateur</t>
   </si>
 </sst>
 </file>
@@ -243,41 +243,41 @@
   </cellStyleXfs>
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -595,7 +595,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A18ED14-B401-AB40-9C91-1ED753774481}">
   <dimension ref="B1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -604,69 +606,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:3" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:3" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="2:3" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="12"/>
+    </row>
+    <row r="3" spans="2:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="2"/>
-    </row>
-    <row r="3" spans="2:3" ht="19" x14ac:dyDescent="0.2">
-      <c r="B3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" ht="19" x14ac:dyDescent="0.2">
-      <c r="B4" s="5" t="s">
+    </row>
+    <row r="5" spans="2:3" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C5" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="2:3" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="7" t="s">
+    <row r="6" spans="2:3" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="7"/>
+      <c r="C6" s="8"/>
+    </row>
+    <row r="7" spans="2:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C7" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="2:3" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="9"/>
-      <c r="C6" s="10"/>
-    </row>
-    <row r="7" spans="2:3" ht="19" x14ac:dyDescent="0.2">
-      <c r="B7" s="3" t="s">
+    <row r="8" spans="2:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C8" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="2:3" ht="19" x14ac:dyDescent="0.2">
-      <c r="B8" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" ht="19" x14ac:dyDescent="0.2">
-      <c r="B9" s="5" t="s">
+    <row r="10" spans="2:3" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="10" t="s">
         <v>14</v>
       </c>
     </row>
